--- a/biology/Médecine/Max_Joseph_Schleiß_von_Löwenfeld/Max_Joseph_Schleiß_von_Löwenfeld.xlsx
+++ b/biology/Médecine/Max_Joseph_Schleiß_von_Löwenfeld/Max_Joseph_Schleiß_von_Löwenfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max_Joseph_Schlei%C3%9F_von_L%C3%B6wenfeld</t>
+          <t>Max_Joseph_Schleiß_von_Löwenfeld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Joseph Schleiß von Löwenfeld, né le 7 juin 1809 à Sulzbach-Rosenberg, dans le district du Haut-Palatinat et décédé le 7 février 1897 à Munich, est un médecin bavarois, chirurgien et ophtalmologue. Il est le médecin et chirurgien personnel des rois de Bavière Louis 1er, Maximilien II et Louis II. Il pratique également à l'hôpital municipal de Munich et est l'auteur de nombreuses publications scientifiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max_Joseph_Schlei%C3%9F_von_L%C3%B6wenfeld</t>
+          <t>Max_Joseph_Schleiß_von_Löwenfeld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Joseph Schleiß von Löwenfeld venait d'une famille noble du Haut-Palatinat. Il fait ses études et obtient son diplôme à Munich. Il soutient sa thèse de doctorat en 1832. De 1833 à 1836, il est l'assistant du chirurgien et ophtalmologue Phillip Franz von Walther à l'Hôpital général municipal de Munich, Ziemssenstraße.
 Nanti d'une bourse de l’État, il entreprend un voyage d'étude dans les principales cliniques du monde germanophone à Berlin, Hambourg, Schwerin, Göttingen, Bonn, Heidelberg, Wurtzbourg, Bamberg et Erlangen. Il retourne à Munich en 1837, où il est nommé médecin de district pour les pauvres. En 1838, il poursuit sa formation en ophtalmologie à Paris sur la recommandation de Phillip Franz von Walther. Un an plus tard, il parfait ses connaissances lors d'un voyage d'étude en Angleterre, aux Pays-Bas et en Belgique.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Max_Joseph_Schlei%C3%9F_von_L%C3%B6wenfeld</t>
+          <t>Max_Joseph_Schleiß_von_Löwenfeld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Skizzen zu einem Lehrbuch für eine Allgemeine pathologische Anatomie, 1847
 Über den Ursprung der Sprache, Munich, 1866
